--- a/data/trans_orig/P79_n_R-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P79_n_R-Clase-trans_orig.xlsx
@@ -787,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5140</v>
+        <v>6372</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.002157414136550465</v>
@@ -796,7 +796,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.009335455999634534</v>
+        <v>0.01157291153002609</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
@@ -821,16 +821,16 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>5828</v>
+        <v>6683</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.001143289992427487</v>
+        <v>0.001143289992427486</v>
       </c>
       <c r="V5" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.005609175683602237</v>
+        <v>0.006432203378452475</v>
       </c>
     </row>
     <row r="6">
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>3499</v>
+        <v>3501</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.001437927126675099</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.007163549758668784</v>
+        <v>0.007167391229282594</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1</v>
@@ -882,16 +882,16 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>4014</v>
+        <v>3562</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.0006759187269358509</v>
+        <v>0.0006759187269358508</v>
       </c>
       <c r="V6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.003863692830823417</v>
+        <v>0.003428555249664058</v>
       </c>
     </row>
     <row r="7">
@@ -906,19 +906,19 @@
         <v>7661</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3316</v>
+        <v>3418</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>15158</v>
+        <v>14581</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01391290007552462</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.006022074182142343</v>
+        <v>0.006207509167430394</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02752980168413363</v>
+        <v>0.02648188254327258</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>7</v>
@@ -927,19 +927,19 @@
         <v>5647</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2549</v>
+        <v>2416</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>11974</v>
+        <v>11861</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0115615554664972</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.005219349215626481</v>
+        <v>0.004947300422168871</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02451668667134523</v>
+        <v>0.02428444228022586</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>14</v>
@@ -948,19 +948,19 @@
         <v>13307</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>7405</v>
+        <v>7309</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>22226</v>
+        <v>21872</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01280761606965414</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.007127164346339925</v>
+        <v>0.007034732254813808</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02139106308135828</v>
+        <v>0.02105080389574517</v>
       </c>
     </row>
     <row r="8">
@@ -975,19 +975,19 @@
         <v>32159</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>21753</v>
+        <v>21893</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>46612</v>
+        <v>46526</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.05840464857327814</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.03950636370004523</v>
+        <v>0.03976116511593539</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.08465378900072207</v>
+        <v>0.08449810014600947</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>33</v>
@@ -996,19 +996,19 @@
         <v>25907</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>17887</v>
+        <v>18397</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>35972</v>
+        <v>35711</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.05304310306412931</v>
+        <v>0.05304310306412929</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.03662198114912259</v>
+        <v>0.03766791761740945</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.07365183215479496</v>
+        <v>0.0731156944500278</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>61</v>
@@ -1017,19 +1017,19 @@
         <v>58065</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>44946</v>
+        <v>45079</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>77368</v>
+        <v>75568</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.05588437550260301</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.04325739924841763</v>
+        <v>0.04338557653867875</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.074461364669911</v>
+        <v>0.07272919455969563</v>
       </c>
     </row>
     <row r="9">
@@ -1044,19 +1044,19 @@
         <v>509611</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>495004</v>
+        <v>494328</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>521478</v>
+        <v>521763</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.9255250372146467</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.8989974745853387</v>
+        <v>0.8977687583257412</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.9470768102615071</v>
+        <v>0.9475955184144843</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>645</v>
@@ -1065,19 +1065,19 @@
         <v>456155</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>445834</v>
+        <v>445915</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>464912</v>
+        <v>465128</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.9339574143426985</v>
+        <v>0.9339574143426984</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.9128256916745754</v>
+        <v>0.9129914952054847</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.9518875013920509</v>
+        <v>0.9523280711643404</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1163</v>
@@ -1086,19 +1086,19 @@
         <v>965766</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>945347</v>
+        <v>946959</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>980831</v>
+        <v>980685</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.9294887997083796</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.9098369786471243</v>
+        <v>0.9113886141775708</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.943987682266177</v>
+        <v>0.9438475511935622</v>
       </c>
     </row>
     <row r="10">
@@ -1278,19 +1278,19 @@
         <v>3408</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>913</v>
+        <v>896</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>10452</v>
+        <v>9256</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.007053096066995429</v>
+        <v>0.007053096066995428</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.001890313610757835</v>
+        <v>0.00185498624234836</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02163074931958031</v>
+        <v>0.01915418190106993</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>0</v>
@@ -1312,19 +1312,19 @@
         <v>3408</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>892</v>
+        <v>898</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>10290</v>
+        <v>10282</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.003760272397734853</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0009838410790484814</v>
+        <v>0.0009910357183572484</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01135287222898958</v>
+        <v>0.01134477831461509</v>
       </c>
     </row>
     <row r="14">
@@ -1339,19 +1339,19 @@
         <v>6013</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2383</v>
+        <v>2425</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>12991</v>
+        <v>13638</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01244377937746849</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.004932044884107696</v>
+        <v>0.00501819185369826</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02688514484530688</v>
+        <v>0.02822341891904892</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>9</v>
@@ -1360,19 +1360,19 @@
         <v>7042</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3052</v>
+        <v>3496</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>13100</v>
+        <v>13351</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01664289810418117</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.007213826439584928</v>
+        <v>0.008262752612141261</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.03095767463719375</v>
+        <v>0.03155247471522569</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>15</v>
@@ -1381,19 +1381,19 @@
         <v>13055</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>7348</v>
+        <v>7280</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>19918</v>
+        <v>22053</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01440418901913739</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.008107141672043515</v>
+        <v>0.008031853093737489</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02197596198577637</v>
+        <v>0.02433108469109514</v>
       </c>
     </row>
     <row r="15">
@@ -1408,19 +1408,19 @@
         <v>36413</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>25560</v>
+        <v>26216</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>48447</v>
+        <v>49757</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.0753555576046729</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.05289690592410305</v>
+        <v>0.05425389182342865</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1002609232334203</v>
+        <v>0.1029723972926343</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>55</v>
@@ -1429,19 +1429,19 @@
         <v>44515</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>33774</v>
+        <v>33977</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>56590</v>
+        <v>56396</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.1052016859631025</v>
+        <v>0.1052016859631024</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.07981611256640052</v>
+        <v>0.08029652892799589</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1337378868835891</v>
+        <v>0.1332786483393564</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>92</v>
@@ -1450,19 +1450,19 @@
         <v>80928</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>65719</v>
+        <v>65467</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>99218</v>
+        <v>97557</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.08928958557776585</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.07250880469326566</v>
+        <v>0.072231077957729</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1094692844337086</v>
+        <v>0.1076367094323739</v>
       </c>
     </row>
     <row r="16">
@@ -1477,19 +1477,19 @@
         <v>437378</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>424747</v>
+        <v>423445</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>450274</v>
+        <v>448879</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.9051475669508632</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8790080473277888</v>
+        <v>0.8763124197230855</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.931835165126775</v>
+        <v>0.9289484093625466</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>526</v>
@@ -1498,19 +1498,19 @@
         <v>371585</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>359330</v>
+        <v>359468</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>383133</v>
+        <v>383009</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8781554159327164</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8491920891995302</v>
+        <v>0.8495183400557283</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9054461145893478</v>
+        <v>0.905152897229604</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>961</v>
@@ -1519,19 +1519,19 @@
         <v>808963</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>790478</v>
+        <v>791013</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>825342</v>
+        <v>825807</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.8925459530053619</v>
+        <v>0.892545953005362</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8721508954123437</v>
+        <v>0.8727405929541736</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9106171904951053</v>
+        <v>0.9111301080222338</v>
       </c>
     </row>
     <row r="17">
@@ -1714,16 +1714,16 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>8562</v>
+        <v>7450</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.005086316284871277</v>
+        <v>0.005086316284871276</v>
       </c>
       <c r="H20" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.0181546013211686</v>
+        <v>0.01579627889195789</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2</v>
@@ -1735,7 +1735,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>4597</v>
+        <v>5085</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.007104689666009883</v>
@@ -1744,7 +1744,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.02451665239745815</v>
+        <v>0.02711991439543601</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>4</v>
@@ -1753,19 +1753,19 @@
         <v>3731</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>742</v>
+        <v>1050</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>9192</v>
+        <v>10534</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.005660484637884775</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.001126450427712632</v>
+        <v>0.001593074255499764</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01394552863770026</v>
+        <v>0.01598291444400833</v>
       </c>
     </row>
     <row r="21">
@@ -1780,19 +1780,19 @@
         <v>27022</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>18273</v>
+        <v>17558</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>39366</v>
+        <v>37705</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.0572964129465226</v>
+        <v>0.05729641294652259</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.03874674259364658</v>
+        <v>0.03723048370068088</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.08347165700034036</v>
+        <v>0.07994816944700577</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>5</v>
@@ -1801,19 +1801,19 @@
         <v>3047</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>1060</v>
+        <v>923</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>6136</v>
+        <v>6611</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.01625094307630236</v>
+        <v>0.01625094307630235</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.005652113948157555</v>
+        <v>0.004923779025737793</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.03272429123413553</v>
+        <v>0.03525952042241636</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>33</v>
@@ -1822,19 +1822,19 @@
         <v>30069</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>20314</v>
+        <v>20304</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>41380</v>
+        <v>42756</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.04562017402349691</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.03082031424665311</v>
+        <v>0.03080462490534371</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.06278202160875959</v>
+        <v>0.06486929805959089</v>
       </c>
     </row>
     <row r="22">
@@ -1849,19 +1849,19 @@
         <v>50398</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>38200</v>
+        <v>38166</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>63703</v>
+        <v>64690</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1068633869235756</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0809996209332044</v>
+        <v>0.08092634222113407</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1350750146477423</v>
+        <v>0.1371669835356402</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>24</v>
@@ -1870,19 +1870,19 @@
         <v>17568</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>12166</v>
+        <v>11240</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>26242</v>
+        <v>24912</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.09369502898421836</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.06488499377778108</v>
+        <v>0.05994767659893599</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1399587775432501</v>
+        <v>0.1328653408752624</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>78</v>
@@ -1891,19 +1891,19 @@
         <v>67966</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>54971</v>
+        <v>55510</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>84408</v>
+        <v>85105</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1031173731975782</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.08340126806048155</v>
+        <v>0.0842191159762531</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1280640857812639</v>
+        <v>0.1291208927153339</v>
       </c>
     </row>
     <row r="23">
@@ -1918,19 +1918,19 @@
         <v>391794</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>373530</v>
+        <v>374259</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>407285</v>
+        <v>408112</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.8307538838450308</v>
+        <v>0.8307538838450306</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7920282406422636</v>
+        <v>0.7935746960031269</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8636022194802472</v>
+        <v>0.8653546664488875</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>258</v>
@@ -1939,19 +1939,19 @@
         <v>165550</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>157290</v>
+        <v>157092</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>171894</v>
+        <v>172368</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.8829493382734693</v>
+        <v>0.8829493382734692</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8388937356722262</v>
+        <v>0.8378394575119642</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9167829317820672</v>
+        <v>0.9193112549121244</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>662</v>
@@ -1960,19 +1960,19 @@
         <v>557344</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>538784</v>
+        <v>538371</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>574154</v>
+        <v>573762</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.8456019681410402</v>
+        <v>0.8456019681410401</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8174430349140666</v>
+        <v>0.8168161103925181</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8711060641892063</v>
+        <v>0.8705120067291436</v>
       </c>
     </row>
     <row r="24">
@@ -2110,7 +2110,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>5742</v>
+        <v>5718</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.0009980268281823774</v>
@@ -2119,7 +2119,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.005072878859812104</v>
+        <v>0.005051979426311208</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>0</v>
@@ -2144,16 +2144,16 @@
         <v>0</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6416</v>
+        <v>7193</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.0005667730771544032</v>
+        <v>0.0005667730771544033</v>
       </c>
       <c r="V26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.003219279579081215</v>
+        <v>0.003608922562379992</v>
       </c>
     </row>
     <row r="27">
@@ -2168,19 +2168,19 @@
         <v>6829</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>2727</v>
+        <v>1996</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>19047</v>
+        <v>20868</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.006033786608198804</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.002409388252206715</v>
+        <v>0.001763524938253002</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.01682820361477736</v>
+        <v>0.01843700920264736</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>4</v>
@@ -2189,19 +2189,19 @@
         <v>3143</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>813</v>
+        <v>977</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>8165</v>
+        <v>7530</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.003649155599771088</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.0009439653899599704</v>
+        <v>0.001134459203850755</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.009480832866730442</v>
+        <v>0.00874371263811116</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>9</v>
@@ -2210,19 +2210,19 @@
         <v>9972</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>4366</v>
+        <v>4695</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>22023</v>
+        <v>20450</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.005003372356635068</v>
+        <v>0.005003372356635069</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.002190409310140569</v>
+        <v>0.002355883908677263</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.01104963789267586</v>
+        <v>0.01026084931080242</v>
       </c>
     </row>
     <row r="28">
@@ -2237,19 +2237,19 @@
         <v>45069</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>32578</v>
+        <v>32831</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>62755</v>
+        <v>62730</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.03981925226752887</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.0287834418817073</v>
+        <v>0.02900699225017843</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.05544495333476489</v>
+        <v>0.05542262513542294</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>24</v>
@@ -2258,19 +2258,19 @@
         <v>18682</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>12106</v>
+        <v>12455</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>27953</v>
+        <v>27874</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.02169269029463137</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01405664337144834</v>
+        <v>0.01446239357914415</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.03245805383865616</v>
+        <v>0.0323659346275681</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>68</v>
@@ -2279,19 +2279,19 @@
         <v>63751</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>49583</v>
+        <v>49418</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>82607</v>
+        <v>82673</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.03198664935214451</v>
+        <v>0.03198664935214453</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.02487781856208568</v>
+        <v>0.02479530347485182</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.0414472345410734</v>
+        <v>0.04148040732955187</v>
       </c>
     </row>
     <row r="29">
@@ -2306,19 +2306,19 @@
         <v>129626</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>103819</v>
+        <v>105927</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>154735</v>
+        <v>156004</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1145261006135914</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.09172557947014316</v>
+        <v>0.09358850745971919</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1367102493748081</v>
+        <v>0.1378314293576675</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>90</v>
@@ -2327,19 +2327,19 @@
         <v>70101</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>57216</v>
+        <v>56368</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>85279</v>
+        <v>85175</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.08139782499743024</v>
+        <v>0.08139782499743023</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.06643622861854223</v>
+        <v>0.06545219766497862</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.09902240941857256</v>
+        <v>0.0989019718346321</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>203</v>
@@ -2348,19 +2348,19 @@
         <v>199726</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>171220</v>
+        <v>171551</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>229045</v>
+        <v>228253</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1002111616549091</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.08590824043562914</v>
+        <v>0.08607431486106812</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1149217338725207</v>
+        <v>0.1145244806813733</v>
       </c>
     </row>
     <row r="30">
@@ -2375,19 +2375,19 @@
         <v>949189</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>921061</v>
+        <v>919724</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>980185</v>
+        <v>976916</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.8386228336824986</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.8137707941271325</v>
+        <v>0.8125899975136212</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.8660076859630549</v>
+        <v>0.8631198836932797</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1112</v>
@@ -2396,19 +2396,19 @@
         <v>769286</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>751502</v>
+        <v>753107</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>783994</v>
+        <v>785192</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.8932603291081673</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.872610556698293</v>
+        <v>0.8744744522991457</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.910339095511884</v>
+        <v>0.9117304240873113</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>2067</v>
@@ -2417,19 +2417,19 @@
         <v>1718475</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1686046</v>
+        <v>1682457</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1750751</v>
+        <v>1748700</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.8622320435591567</v>
+        <v>0.8622320435591571</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.8459609696338392</v>
+        <v>0.8441600192370291</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.8784264132550581</v>
+        <v>0.8773973646706557</v>
       </c>
     </row>
     <row r="31">
@@ -2535,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>4791</v>
+        <v>5051</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.001662277086834631</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.005766980632571428</v>
+        <v>0.006078889132657291</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>2</v>
@@ -2556,16 +2556,16 @@
         <v>0</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>4224</v>
+        <v>4835</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.000987338797370046</v>
+        <v>0.0009873387973700458</v>
       </c>
       <c r="V32" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.00301975415080677</v>
+        <v>0.003456793133716219</v>
       </c>
     </row>
     <row r="33">
@@ -2583,7 +2583,7 @@
         <v>0</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>6215</v>
+        <v>6163</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.002140797909390907</v>
@@ -2592,7 +2592,7 @@
         <v>0</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.01094327914864487</v>
+        <v>0.01085119276869208</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>3</v>
@@ -2601,19 +2601,19 @@
         <v>2070</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>5516</v>
+        <v>5734</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.002491590461889818</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.0007598499169217907</v>
+        <v>0.0007617186045075187</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.006638431685707291</v>
+        <v>0.006901323535655632</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>4</v>
@@ -2622,19 +2622,19 @@
         <v>3286</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>1202</v>
+        <v>748</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>8311</v>
+        <v>8118</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.002349157333733438</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.0008591218301392244</v>
+        <v>0.0005347622626647838</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.005941479580906367</v>
+        <v>0.005803517762465645</v>
       </c>
     </row>
     <row r="34">
@@ -2649,19 +2649,19 @@
         <v>4812</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>1523</v>
+        <v>1497</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>13369</v>
+        <v>13293</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.008471958957649905</v>
+        <v>0.008471958957649904</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.002682289886444375</v>
+        <v>0.002635774245494983</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.02353841762158125</v>
+        <v>0.02340450009626189</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>8</v>
@@ -2670,19 +2670,19 @@
         <v>5418</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>2464</v>
+        <v>2550</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>10892</v>
+        <v>10407</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.006520534475379495</v>
+        <v>0.006520534475379494</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.002965302527862595</v>
+        <v>0.003068692469695101</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.01310987916558847</v>
+        <v>0.01252619959556281</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>12</v>
@@ -2691,19 +2691,19 @@
         <v>10229</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>5035</v>
+        <v>5076</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>18154</v>
+        <v>18633</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.007312875964361309</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.003599431582991622</v>
+        <v>0.003629029143763076</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.01297792470878367</v>
+        <v>0.01332040923242452</v>
       </c>
     </row>
     <row r="35">
@@ -2718,19 +2718,19 @@
         <v>27054</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>17679</v>
+        <v>18434</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>38969</v>
+        <v>40193</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.04763273634377369</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.03112692060228372</v>
+        <v>0.03245695534078537</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.06861256053012661</v>
+        <v>0.07076695552850196</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>68</v>
@@ -2739,19 +2739,19 @@
         <v>53306</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>41385</v>
+        <v>41382</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>68654</v>
+        <v>69739</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>0.06415833276750496</v>
+        <v>0.06415833276750499</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.04980983888036396</v>
+        <v>0.04980674803925468</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.08263104940755249</v>
+        <v>0.08393701133906448</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>95</v>
@@ -2760,19 +2760,19 @@
         <v>80360</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>66118</v>
+        <v>64175</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>101567</v>
+        <v>99169</v>
       </c>
       <c r="U35" s="6" t="n">
-        <v>0.05744840584199182</v>
+        <v>0.05744840584199181</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.04726737677471055</v>
+        <v>0.04587829511938167</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.07260946631503865</v>
+        <v>0.07089536464839209</v>
       </c>
     </row>
     <row r="36">
@@ -2787,19 +2787,19 @@
         <v>72170</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>55831</v>
+        <v>56097</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>91010</v>
+        <v>92153</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1270678186128668</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.0983004253827401</v>
+        <v>0.09876799615923849</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1602384381438011</v>
+        <v>0.1622514602670138</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>137</v>
@@ -2808,19 +2808,19 @@
         <v>98777</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>85240</v>
+        <v>83859</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>116204</v>
+        <v>116147</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1188866392718118</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1025942088407477</v>
+        <v>0.1009312883397195</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.13986158649684</v>
+        <v>0.1397933795296005</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>203</v>
@@ -2829,19 +2829,19 @@
         <v>170947</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>148305</v>
+        <v>148744</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>199085</v>
+        <v>198306</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1222084628317873</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1060221735162102</v>
+        <v>0.1063357597327438</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1423239317877884</v>
+        <v>0.1417672907909442</v>
       </c>
     </row>
     <row r="37">
@@ -2856,19 +2856,19 @@
         <v>462713</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>441936</v>
+        <v>440917</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>481753</v>
+        <v>481995</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>0.8146866881763186</v>
+        <v>0.8146866881763185</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.7781048726680131</v>
+        <v>0.7763116858521815</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.8482103341380871</v>
+        <v>0.8486363915792772</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>1072</v>
@@ -2877,19 +2877,19 @@
         <v>669898</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>646890</v>
+        <v>648078</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>687775</v>
+        <v>689112</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.8062806259365795</v>
+        <v>0.8062806259365792</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.7785884730009602</v>
+        <v>0.7800177258031189</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.8277964077075748</v>
+        <v>0.8294059801452754</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>1521</v>
@@ -2898,19 +2898,19 @@
         <v>1132611</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>1102585</v>
+        <v>1101696</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>1161418</v>
+        <v>1158526</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.8096937592307563</v>
+        <v>0.809693759230756</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.788228634531872</v>
+        <v>0.7875927193212884</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.8302878436106254</v>
+        <v>0.8282202672450094</v>
       </c>
     </row>
     <row r="38">
@@ -3058,19 +3058,19 @@
         <v>2871</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>8950</v>
+        <v>8808</v>
       </c>
       <c r="N40" s="6" t="n">
-        <v>0.003400865288903833</v>
+        <v>0.003400865288903834</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.0008232045637962519</v>
+        <v>0.0008263801640310896</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.01060044439644421</v>
+        <v>0.01043304170984598</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>3</v>
@@ -3079,19 +3079,19 @@
         <v>2871</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>686</v>
+        <v>698</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>8655</v>
+        <v>8785</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.002654889239933087</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.0006346444435100524</v>
+        <v>0.000645184460064761</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.008002359686208679</v>
+        <v>0.008122999209435803</v>
       </c>
     </row>
     <row r="41">
@@ -3119,19 +3119,19 @@
         <v>4469</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>15232</v>
+        <v>16624</v>
       </c>
       <c r="N41" s="6" t="n">
-        <v>0.005292853887698438</v>
+        <v>0.00529285388769844</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.0008893286301474236</v>
+        <v>0.0008843307569019077</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.01804180748016444</v>
+        <v>0.01969003076290521</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>3</v>
@@ -3140,19 +3140,19 @@
         <v>4469</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>779</v>
+        <v>791</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>15286</v>
+        <v>16049</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.004131872226999563</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.000719882630836618</v>
+        <v>0.0007309919978153516</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.01413414881274891</v>
+        <v>0.01483943990181034</v>
       </c>
     </row>
     <row r="42">
@@ -3167,19 +3167,19 @@
         <v>7383</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>2389</v>
+        <v>1854</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>19487</v>
+        <v>18192</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>0.03112089820340978</v>
+        <v>0.03112089820340979</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.01006893718673492</v>
+        <v>0.007814450884632729</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.08214355946380844</v>
+        <v>0.07668777095726169</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>49</v>
@@ -3188,19 +3188,19 @@
         <v>39685</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>28452</v>
+        <v>29477</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>54407</v>
+        <v>53463</v>
       </c>
       <c r="N42" s="6" t="n">
-        <v>0.04700499618650734</v>
+        <v>0.04700499618650736</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.03370011292189848</v>
+        <v>0.03491351717980146</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.0644415778197921</v>
+        <v>0.06332321903230372</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>53</v>
@@ -3209,19 +3209,19 @@
         <v>47068</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>34841</v>
+        <v>34411</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>62385</v>
+        <v>64582</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.04352083681872642</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.03221499516018599</v>
+        <v>0.03181763472365286</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.0576835652403823</v>
+        <v>0.05971452967854646</v>
       </c>
     </row>
     <row r="43">
@@ -3236,19 +3236,19 @@
         <v>12447</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>4256</v>
+        <v>4126</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>29203</v>
+        <v>27707</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.05246657500789795</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.01794032536257625</v>
+        <v>0.01739354390898923</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.1231027836006937</v>
+        <v>0.1167933130908586</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>131</v>
@@ -3257,19 +3257,19 @@
         <v>101081</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>85311</v>
+        <v>85292</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>121788</v>
+        <v>119604</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.1197247040440841</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.1010452614770996</v>
+        <v>0.1010230543650119</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.1442507931323411</v>
+        <v>0.1416642499721695</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>136</v>
@@ -3278,19 +3278,19 @@
         <v>113528</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>94549</v>
+        <v>94109</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>137289</v>
+        <v>135890</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.1049717076454086</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.08742343816084368</v>
+        <v>0.08701637813250397</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.126941685947866</v>
+        <v>0.1256482463657769</v>
       </c>
     </row>
     <row r="44">
@@ -3305,19 +3305,19 @@
         <v>217399</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>199485</v>
+        <v>198821</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>227476</v>
+        <v>227491</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.9164125267886923</v>
+        <v>0.9164125267886921</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.8408996608811898</v>
+        <v>0.8381020853812025</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.9588932145620634</v>
+        <v>0.9589560585887367</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>973</v>
@@ -3326,19 +3326,19 @@
         <v>696174</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>674787</v>
+        <v>673148</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>718089</v>
+        <v>715559</v>
       </c>
       <c r="N44" s="6" t="n">
-        <v>0.8245765805928064</v>
+        <v>0.8245765805928065</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.7992440114400142</v>
+        <v>0.7973032445962746</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.8505331098943965</v>
+        <v>0.8475368098235914</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>1076</v>
@@ -3347,19 +3347,19 @@
         <v>913573</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>886882</v>
+        <v>886867</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>935442</v>
+        <v>936248</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.8447206940689325</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.8200415138131693</v>
+        <v>0.8200274084207466</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.8649412315934074</v>
+        <v>0.865686578534637</v>
       </c>
     </row>
     <row r="45">
@@ -3465,7 +3465,7 @@
         <v>0</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>4798</v>
+        <v>4906</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.0003799047247043688</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.001319854358322279</v>
+        <v>0.001349395702963388</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>2</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>4219</v>
+        <v>4209</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.0001951297785935746</v>
@@ -3495,7 +3495,7 @@
         <v>0</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.0005960684425234136</v>
+        <v>0.0005946520637236923</v>
       </c>
     </row>
     <row r="47">
@@ -3510,19 +3510,19 @@
         <v>3533</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>1126</v>
+        <v>1118</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>10291</v>
+        <v>8332</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.001026417146216198</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.0003269598511212798</v>
+        <v>0.0003247114796197518</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.002989420152429562</v>
+        <v>0.002420365249834423</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>6</v>
@@ -3531,19 +3531,19 @@
         <v>4941</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>2022</v>
+        <v>2089</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>10614</v>
+        <v>11963</v>
       </c>
       <c r="N47" s="6" t="n">
-        <v>0.001359254211012389</v>
+        <v>0.00135925421101239</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.0005562907709624819</v>
+        <v>0.0005746728544666649</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.002919647919419021</v>
+        <v>0.003290666381201291</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>9</v>
@@ -3552,19 +3552,19 @@
         <v>8475</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>3905</v>
+        <v>3990</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>15844</v>
+        <v>15606</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.001197371647537432</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.0005517345206936073</v>
+        <v>0.0005637718818228227</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.002238493629676029</v>
+        <v>0.002204893809998477</v>
       </c>
     </row>
     <row r="48">
@@ -3579,19 +3579,19 @@
         <v>17448</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>9123</v>
+        <v>9567</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>31207</v>
+        <v>30183</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.00506843603083088</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.002650092286733411</v>
+        <v>0.002779005634460495</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.009065179284869164</v>
+        <v>0.008767707016187688</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>18</v>
@@ -3600,19 +3600,19 @@
         <v>15063</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>9612</v>
+        <v>9034</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>25887</v>
+        <v>26944</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.004143525734005218</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.002643962326677716</v>
+        <v>0.002485113416796268</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.007120941838280752</v>
+        <v>0.007411583435185874</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>32</v>
@@ -3621,19 +3621,19 @@
         <v>32511</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>21472</v>
+        <v>20641</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>48038</v>
+        <v>46830</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.004593376023143554</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.003033700824420186</v>
+        <v>0.002916221479136381</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.006787135018342517</v>
+        <v>0.006616350256342721</v>
       </c>
     </row>
     <row r="49">
@@ -3648,19 +3648,19 @@
         <v>120201</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>100516</v>
+        <v>98786</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>145453</v>
+        <v>144303</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.03491698126411345</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.02919860946983233</v>
+        <v>0.02869624283626328</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.04225234793109604</v>
+        <v>0.04191827224922701</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>162</v>
@@ -3669,19 +3669,19 @@
         <v>127409</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>106695</v>
+        <v>107938</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>148863</v>
+        <v>149192</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.0350469612729097</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.02934884081381983</v>
+        <v>0.02969097766294931</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.04094829564714467</v>
+        <v>0.04103875484975315</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>278</v>
@@ -3690,19 +3690,19 @@
         <v>247610</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>216976</v>
+        <v>220146</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>279460</v>
+        <v>279330</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.03498374266161314</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.0306554958319574</v>
+        <v>0.0311034092255411</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.03948357996634926</v>
+        <v>0.03946533719662011</v>
       </c>
     </row>
     <row r="50">
@@ -3717,19 +3717,19 @@
         <v>333211</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>296379</v>
+        <v>296481</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>375021</v>
+        <v>372608</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.09679409824684347</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.08609461635063571</v>
+        <v>0.08612445171675985</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.1089392957190976</v>
+        <v>0.1082384609452431</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>470</v>
@@ -3738,19 +3738,19 @@
         <v>357949</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>327907</v>
+        <v>326115</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>391894</v>
+        <v>390113</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.09846216983633022</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.09019852638138506</v>
+        <v>0.0897056340640766</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.1077996502400148</v>
+        <v>0.1073096405054632</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>773</v>
@@ -3759,19 +3759,19 @@
         <v>691160</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>644484</v>
+        <v>640830</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>742955</v>
+        <v>745188</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.0976508668489925</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.09105621443246854</v>
+        <v>0.09053991273905999</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.1049687533797033</v>
+        <v>0.1052842981947347</v>
       </c>
     </row>
     <row r="51">
@@ -3786,19 +3786,19 @@
         <v>2968082</v>
       </c>
       <c r="E51" s="5" t="n">
-        <v>2921289</v>
+        <v>2920676</v>
       </c>
       <c r="F51" s="5" t="n">
-        <v>3012809</v>
+        <v>3008400</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.862194067311996</v>
+        <v>0.8621940673119961</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.8486011860595458</v>
+        <v>0.8484230690535459</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.8751865171988412</v>
+        <v>0.8739057344166773</v>
       </c>
       <c r="J51" s="5" t="n">
         <v>4586</v>
@@ -3807,19 +3807,19 @@
         <v>3128649</v>
       </c>
       <c r="L51" s="5" t="n">
-        <v>3090636</v>
+        <v>3088346</v>
       </c>
       <c r="M51" s="5" t="n">
-        <v>3164951</v>
+        <v>3165583</v>
       </c>
       <c r="N51" s="6" t="n">
         <v>0.8606081842210381</v>
       </c>
       <c r="O51" s="6" t="n">
-        <v>0.8501518231600539</v>
+        <v>0.8495220172512536</v>
       </c>
       <c r="P51" s="6" t="n">
-        <v>0.8705938991758515</v>
+        <v>0.8707677948773971</v>
       </c>
       <c r="Q51" s="5" t="n">
         <v>7450</v>
@@ -3828,19 +3828,19 @@
         <v>6096731</v>
       </c>
       <c r="S51" s="5" t="n">
-        <v>6041853</v>
+        <v>6034527</v>
       </c>
       <c r="T51" s="5" t="n">
-        <v>6158080</v>
+        <v>6153190</v>
       </c>
       <c r="U51" s="6" t="n">
         <v>0.8613795130401197</v>
       </c>
       <c r="V51" s="6" t="n">
-        <v>0.8536260455629424</v>
+        <v>0.8525909313771883</v>
       </c>
       <c r="W51" s="6" t="n">
-        <v>0.8700472297283361</v>
+        <v>0.8693562806305718</v>
       </c>
     </row>
     <row r="52">
